--- a/ehtest-integration/src/test/data/excel/news_template.xlsx
+++ b/ehtest-integration/src/test/data/excel/news_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20415" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="17820" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>标题</t>
   </si>
@@ -88,12 +89,19 @@
     <t>唐彤测试上传新闻5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,7 +122,17 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,11 +161,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,18 +1629,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1632,14 +1657,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1655,14 +1683,17 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3">
+        <v>42558.580439814818</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1678,14 +1709,17 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3">
+        <v>42557.618437500001</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1701,14 +1735,17 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3">
+        <v>42558.618437500001</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1724,14 +1761,17 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3">
+        <v>42559.618437500001</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1747,22 +1787,25 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3">
+        <v>42560.618437500001</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="H5" r:id="rId5"/>
+    <hyperlink ref="H6" r:id="rId6"/>
     <hyperlink ref="C3" r:id="rId7"/>
     <hyperlink ref="C4" r:id="rId8"/>
     <hyperlink ref="C5" r:id="rId9"/>

--- a/ehtest-integration/src/test/data/excel/news_template.xlsx
+++ b/ehtest-integration/src/test/data/excel/news_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="17820" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="16620" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1786,9 +1786,6 @@
       </c>
       <c r="E6" t="s">
         <v>9</v>
-      </c>
-      <c r="F6" s="3">
-        <v>42560.618437500001</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
